--- a/newwisedata/testssh_ans/mcmc4_D.xlsx
+++ b/newwisedata/testssh_ans/mcmc4_D.xlsx
@@ -560,7 +560,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>600</v>
+        <v>925</v>
       </c>
       <c r="D7" t="n">
         <v>2938</v>
